--- a/upwork/SCS/source_img/Links.xlsx
+++ b/upwork/SCS/source_img/Links.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="105">
   <si>
     <t xml:space="preserve">https://www.supportcleansport.com/ </t>
   </si>
@@ -326,6 +326,12 @@
   </si>
   <si>
     <t>SCS Gear</t>
+  </si>
+  <si>
+    <t>фото</t>
+  </si>
+  <si>
+    <t>доработка формы</t>
   </si>
 </sst>
 </file>
@@ -370,7 +376,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -392,6 +398,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,7 +436,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -443,15 +455,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -755,258 +768,276 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="92.42578125" customWidth="1"/>
+    <col min="1" max="1" width="80.7109375" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="3"/>
-    <col min="3" max="3" width="71.7109375" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" customWidth="1"/>
+    <col min="3" max="3" width="64.140625" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="0.85546875" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="3"/>
+    <col min="7" max="7" width="2.85546875" customWidth="1"/>
+    <col min="8" max="8" width="70.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F1" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F2" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="F3" s="11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F3" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="H3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="F4" s="11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F4" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="H4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="F5" s="11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F5" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="H5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="F6" s="11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F6" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F7" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="F8" s="11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F8" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="F9" s="11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F9" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="H9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="F10" s="11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F10" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="F11" s="11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F11" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="12" t="s">
         <v>76</v>
       </c>
       <c r="D12" t="s">
         <v>77</v>
       </c>
-      <c r="F12" s="10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F12" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="11" t="s">
         <v>78</v>
       </c>
       <c r="D13" t="s">
         <v>77</v>
       </c>
-      <c r="F13" s="10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F13" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="11" t="s">
         <v>79</v>
       </c>
       <c r="D14" t="s">
         <v>77</v>
       </c>
-      <c r="F14" s="10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F14" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="11" t="s">
         <v>80</v>
       </c>
       <c r="D15" t="s">
         <v>77</v>
       </c>
-      <c r="F15" s="11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F15" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="11" t="s">
         <v>83</v>
       </c>
       <c r="D16" t="s">
         <v>77</v>
       </c>
-      <c r="F16" s="10" t="s">
-        <v>82</v>
+      <c r="F16" s="9" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1016,14 +1047,14 @@
       <c r="B17" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="11" t="s">
         <v>84</v>
       </c>
       <c r="D17" t="s">
         <v>77</v>
       </c>
-      <c r="F17" s="10" t="s">
-        <v>82</v>
+      <c r="F17" s="9" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1039,7 +1070,7 @@
       <c r="D18" t="s">
         <v>86</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F18" s="8" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1056,7 +1087,7 @@
       <c r="D19" t="s">
         <v>86</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="8" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1073,7 +1104,7 @@
       <c r="D20" t="s">
         <v>86</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="8" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1090,7 +1121,7 @@
       <c r="D21" t="s">
         <v>86</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="F21" s="8" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1107,7 +1138,7 @@
       <c r="D22" t="s">
         <v>86</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="F22" s="8" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1124,7 +1155,7 @@
       <c r="D23" t="s">
         <v>86</v>
       </c>
-      <c r="F23" s="10" t="s">
+      <c r="F23" s="8" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1141,7 +1172,7 @@
       <c r="D24" t="s">
         <v>86</v>
       </c>
-      <c r="F24" s="11" t="s">
+      <c r="F24" s="9" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1155,7 +1186,7 @@
       <c r="C25" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="F25" s="10" t="s">
+      <c r="F25" s="8" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1172,7 +1203,7 @@
       <c r="D26" t="s">
         <v>95</v>
       </c>
-      <c r="F26" s="10" t="s">
+      <c r="F26" s="8" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1189,7 +1220,7 @@
       <c r="D27" t="s">
         <v>95</v>
       </c>
-      <c r="F27" s="10" t="s">
+      <c r="F27" s="8" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1200,14 +1231,14 @@
       <c r="B28" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="11" t="s">
         <v>97</v>
       </c>
       <c r="D28" t="s">
         <v>77</v>
       </c>
-      <c r="F28" s="10" t="s">
-        <v>82</v>
+      <c r="F28" s="9" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1217,14 +1248,14 @@
       <c r="B29" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="11" t="s">
         <v>98</v>
       </c>
       <c r="D29" t="s">
         <v>77</v>
       </c>
-      <c r="F29" s="10" t="s">
-        <v>82</v>
+      <c r="F29" s="9" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1237,7 +1268,7 @@
       <c r="C30" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="F30" s="10" t="s">
+      <c r="F30" s="8" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1496,7 +1527,7 @@
       <c r="C56" t="s">
         <v>102</v>
       </c>
-      <c r="F56" s="10" t="s">
+      <c r="F56" s="8" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1597,16 +1628,16 @@
     <hyperlink ref="A5" r:id="rId5" display="https://www.supportcleansport.com/support-clean-sport-cycling/"/>
     <hyperlink ref="A6" r:id="rId6" display="https://www.supportcleansport.com/scs-cycling-information/"/>
     <hyperlink ref="A7" r:id="rId7" display="https://www.supportcleansport.com/guttenplan-coaching/"/>
-    <hyperlink ref="A8" r:id="rId8" display="https://www.supportcleansport.com/706p/"/>
+    <hyperlink ref="A8" r:id="rId8"/>
     <hyperlink ref="A9" r:id="rId9"/>
     <hyperlink ref="A10" r:id="rId10" display="https://www.supportcleansport.com/individual-contributions/"/>
     <hyperlink ref="A11" r:id="rId11" display="https://www.supportcleansport.com/corporate-partnership/"/>
-    <hyperlink ref="A12" r:id="rId12" display="https://www.supportcleansport.com/steroids-on-amazon-com/"/>
+    <hyperlink ref="A12" r:id="rId12"/>
     <hyperlink ref="A13" r:id="rId13" display="https://www.supportcleansport.com/methylhexaneamine-information/"/>
     <hyperlink ref="A14" r:id="rId14"/>
-    <hyperlink ref="A15" r:id="rId15" display="https://www.supportcleansport.com/doping-in-sport/"/>
-    <hyperlink ref="A16" r:id="rId16" display="https://www.supportcleansport.com/tramadol/"/>
-    <hyperlink ref="A17" r:id="rId17" display="https://www.supportcleansport.com/are-you-racing-clean/"/>
+    <hyperlink ref="A15" r:id="rId15"/>
+    <hyperlink ref="A16" r:id="rId16"/>
+    <hyperlink ref="A17" r:id="rId17"/>
     <hyperlink ref="A18" r:id="rId18" display="https://www.supportcleansport.com/stay-clean/"/>
     <hyperlink ref="A19" r:id="rId19" display="https://www.supportcleansport.com/win-clean/"/>
     <hyperlink ref="A20" r:id="rId20" display="https://www.supportcleansport.com/real-questions-and-answers/"/>
@@ -1617,7 +1648,7 @@
     <hyperlink ref="A25" r:id="rId25" display="https://www.supportcleansport.com/sitemap/"/>
     <hyperlink ref="A26" r:id="rId26" display="https://www.supportcleansport.com/category/tool/"/>
     <hyperlink ref="A27" r:id="rId27" display="https://www.supportcleansport.com/category/articles/"/>
-    <hyperlink ref="A28" r:id="rId28" display="https://www.supportcleansport.com/growth-hormone-and-the-growth-cycle/"/>
+    <hyperlink ref="A28" r:id="rId28"/>
     <hyperlink ref="A29" r:id="rId29" display="https://www.supportcleansport.com/all-about-carbohydrates/"/>
     <hyperlink ref="A30" r:id="rId30" display="https://www.supportcleansport.com/support-clean-sport/our-mission/"/>
     <hyperlink ref="A32" r:id="rId31" display="https://www.supportcleansport.com/activity-7/"/>

--- a/upwork/SCS/source_img/Links.xlsx
+++ b/upwork/SCS/source_img/Links.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="104">
   <si>
     <t xml:space="preserve">https://www.supportcleansport.com/ </t>
   </si>
@@ -263,9 +263,6 @@
   </si>
   <si>
     <t>YES</t>
-  </si>
-  <si>
-    <t>NO</t>
   </si>
   <si>
     <t>Painkillers and Cycling: Tramadol’s Dark Danger – An Athlete’s Story</t>
@@ -376,7 +373,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -386,12 +383,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,7 +427,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -454,16 +445,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -771,7 +758,7 @@
   <dimension ref="A1:H64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -793,10 +780,10 @@
       <c r="B1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="7" t="s">
         <v>81</v>
       </c>
     </row>
@@ -807,14 +794,11 @@
       <c r="B2" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="H2" t="s">
-        <v>103</v>
+      <c r="F2" s="7" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -824,14 +808,11 @@
       <c r="B3" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="H3" t="s">
-        <v>103</v>
+      <c r="F3" s="7" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -841,14 +822,14 @@
       <c r="B4" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="7" t="s">
         <v>81</v>
       </c>
       <c r="H4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -858,14 +839,14 @@
       <c r="B5" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="7" t="s">
         <v>81</v>
       </c>
       <c r="H5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -875,10 +856,10 @@
       <c r="B6" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="7" t="s">
         <v>81</v>
       </c>
     </row>
@@ -889,10 +870,10 @@
       <c r="B7" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="7" t="s">
         <v>81</v>
       </c>
     </row>
@@ -903,10 +884,10 @@
       <c r="B8" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="7" t="s">
         <v>81</v>
       </c>
     </row>
@@ -917,14 +898,14 @@
       <c r="B9" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="7" t="s">
         <v>81</v>
       </c>
       <c r="H9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -934,10 +915,10 @@
       <c r="B10" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="7" t="s">
         <v>81</v>
       </c>
     </row>
@@ -948,10 +929,10 @@
       <c r="B11" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="7" t="s">
         <v>81</v>
       </c>
     </row>
@@ -962,13 +943,13 @@
       <c r="B12" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="10" t="s">
         <v>76</v>
       </c>
       <c r="D12" t="s">
         <v>77</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="7" t="s">
         <v>81</v>
       </c>
     </row>
@@ -979,13 +960,13 @@
       <c r="B13" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="9" t="s">
         <v>78</v>
       </c>
       <c r="D13" t="s">
         <v>77</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="7" t="s">
         <v>81</v>
       </c>
     </row>
@@ -996,13 +977,13 @@
       <c r="B14" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="9" t="s">
         <v>79</v>
       </c>
       <c r="D14" t="s">
         <v>77</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="7" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1013,13 +994,13 @@
       <c r="B15" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="9" t="s">
         <v>80</v>
       </c>
       <c r="D15" t="s">
         <v>77</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="7" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1030,13 +1011,13 @@
       <c r="B16" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C16" s="11" t="s">
-        <v>83</v>
+      <c r="C16" s="9" t="s">
+        <v>82</v>
       </c>
       <c r="D16" t="s">
         <v>77</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="7" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1047,13 +1028,13 @@
       <c r="B17" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="11" t="s">
-        <v>84</v>
+      <c r="C17" s="9" t="s">
+        <v>83</v>
       </c>
       <c r="D17" t="s">
         <v>77</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="7" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1064,14 +1045,14 @@
       <c r="B18" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" t="s">
         <v>85</v>
       </c>
-      <c r="D18" t="s">
-        <v>86</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>82</v>
+      <c r="F18" s="7" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1081,14 +1062,14 @@
       <c r="B19" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>87</v>
+      <c r="C19" s="9" t="s">
+        <v>86</v>
       </c>
       <c r="D19" t="s">
-        <v>86</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>82</v>
+        <v>85</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1098,14 +1079,14 @@
       <c r="B20" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>88</v>
+      <c r="C20" s="9" t="s">
+        <v>87</v>
       </c>
       <c r="D20" t="s">
-        <v>86</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>82</v>
+        <v>85</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1115,14 +1096,14 @@
       <c r="B21" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="7" t="s">
-        <v>89</v>
+      <c r="C21" s="9" t="s">
+        <v>88</v>
       </c>
       <c r="D21" t="s">
-        <v>86</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>82</v>
+        <v>85</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1132,14 +1113,14 @@
       <c r="B22" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C22" s="7" t="s">
-        <v>90</v>
+      <c r="C22" s="9" t="s">
+        <v>89</v>
       </c>
       <c r="D22" t="s">
-        <v>86</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>82</v>
+        <v>85</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1149,14 +1130,14 @@
       <c r="B23" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C23" s="7" t="s">
-        <v>91</v>
+      <c r="C23" s="9" t="s">
+        <v>90</v>
       </c>
       <c r="D23" t="s">
-        <v>86</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>82</v>
+        <v>85</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1166,13 +1147,13 @@
       <c r="B24" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C24" s="7" t="s">
-        <v>92</v>
+      <c r="C24" s="9" t="s">
+        <v>91</v>
       </c>
       <c r="D24" t="s">
-        <v>86</v>
-      </c>
-      <c r="F24" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1183,11 +1164,11 @@
       <c r="B25" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>82</v>
+      <c r="C25" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1197,14 +1178,14 @@
       <c r="B26" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D26" t="s">
         <v>94</v>
       </c>
-      <c r="D26" t="s">
-        <v>95</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>82</v>
+      <c r="F26" s="7" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1214,14 +1195,14 @@
       <c r="B27" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C27" s="7" t="s">
-        <v>96</v>
+      <c r="C27" s="9" t="s">
+        <v>95</v>
       </c>
       <c r="D27" t="s">
-        <v>95</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>82</v>
+        <v>94</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1231,13 +1212,13 @@
       <c r="B28" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="11" t="s">
-        <v>97</v>
+      <c r="C28" s="9" t="s">
+        <v>96</v>
       </c>
       <c r="D28" t="s">
         <v>77</v>
       </c>
-      <c r="F28" s="9" t="s">
+      <c r="F28" s="7" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1248,13 +1229,13 @@
       <c r="B29" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="11" t="s">
-        <v>98</v>
+      <c r="C29" s="9" t="s">
+        <v>97</v>
       </c>
       <c r="D29" t="s">
         <v>77</v>
       </c>
-      <c r="F29" s="9" t="s">
+      <c r="F29" s="7" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1265,11 +1246,11 @@
       <c r="B30" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C30" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>82</v>
+      <c r="C30" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1277,10 +1258,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D31" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1288,10 +1269,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D32" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1299,10 +1280,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D33" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1310,10 +1291,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D34" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1324,10 +1305,10 @@
         <v>64</v>
       </c>
       <c r="C35" t="s">
+        <v>99</v>
+      </c>
+      <c r="D35" t="s">
         <v>100</v>
-      </c>
-      <c r="D35" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1338,7 +1319,7 @@
         <v>64</v>
       </c>
       <c r="D36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1349,7 +1330,7 @@
         <v>64</v>
       </c>
       <c r="D37" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1357,7 +1338,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1365,7 +1346,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1373,7 +1354,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1381,7 +1362,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1389,7 +1370,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1397,7 +1378,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1405,7 +1386,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1416,7 +1397,7 @@
         <v>64</v>
       </c>
       <c r="C45" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1427,7 +1408,7 @@
         <v>64</v>
       </c>
       <c r="C46" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1435,7 +1416,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1443,7 +1424,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1451,7 +1432,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1462,7 +1443,7 @@
         <v>64</v>
       </c>
       <c r="C50" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1470,7 +1451,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1481,7 +1462,7 @@
         <v>64</v>
       </c>
       <c r="C52" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1492,7 +1473,7 @@
         <v>64</v>
       </c>
       <c r="C53" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1503,7 +1484,7 @@
         <v>64</v>
       </c>
       <c r="C54" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1514,7 +1495,7 @@
         <v>64</v>
       </c>
       <c r="C55" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1524,11 +1505,11 @@
       <c r="B56" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C56" t="s">
-        <v>102</v>
-      </c>
-      <c r="F56" s="8" t="s">
-        <v>82</v>
+      <c r="C56" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1539,7 +1520,7 @@
         <v>64</v>
       </c>
       <c r="C57" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1550,7 +1531,7 @@
         <v>64</v>
       </c>
       <c r="C58" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1561,7 +1542,7 @@
         <v>64</v>
       </c>
       <c r="C59" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1572,7 +1553,7 @@
         <v>64</v>
       </c>
       <c r="C60" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1583,7 +1564,7 @@
         <v>64</v>
       </c>
       <c r="C61" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1594,7 +1575,7 @@
         <v>64</v>
       </c>
       <c r="C62" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1605,7 +1586,7 @@
         <v>64</v>
       </c>
       <c r="C63" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1616,7 +1597,7 @@
         <v>64</v>
       </c>
       <c r="C64" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/upwork/SCS/source_img/Links.xlsx
+++ b/upwork/SCS/source_img/Links.xlsx
@@ -757,8 +757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
